--- a/Data/MLModelAndResults.xlsx
+++ b/Data/MLModelAndResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\water_ml\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D102FBC-413C-4930-949E-101B34049FBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E371F-8E50-447B-B144-510D127EB943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="1845" windowWidth="28800" windowHeight="15435" xr2:uid="{D4B50148-62F7-4E62-91D3-37C2BC6734CC}"/>
+    <workbookView xWindow="2895" yWindow="6075" windowWidth="28800" windowHeight="14865" xr2:uid="{D4B50148-62F7-4E62-91D3-37C2BC6734CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>Winter Season Summaries</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||</t>
+  </si>
+  <si>
+    <t>Fall seasonal summaries by decimal lat and long</t>
+  </si>
+  <si>
+    <t>Winter seasonal summaries by decimal lat and long</t>
+  </si>
+  <si>
+    <t>Spring seasonal summaries by decimal lat and long</t>
+  </si>
+  <si>
+    <t>Summer seasonal summaries by decimal lat and long</t>
+  </si>
+  <si>
+    <t>MLPRegressor(hidden_layer_sizes=(100,100), activation="relu")</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor(default parameters)</t>
   </si>
 </sst>
 </file>
@@ -415,18 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3972B6-C082-41A9-8DFD-1AF7E9700D80}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -446,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,6 +512,161 @@
       </c>
       <c r="D5" s="1">
         <v>3.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1888970313396.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>63899622760.010002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1.17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>74757915935.809998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-21.13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>66400042395.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1880798157748.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11730077911.690001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>34436269259.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3027253283.3499999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1882959864941.3301</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-3.62</v>
+      </c>
+      <c r="D17" s="1">
+        <v>53638787348.839996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-0.86</v>
+      </c>
+      <c r="D18" s="1">
+        <v>64152060810.910004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-4.6399999999999997</v>
+      </c>
+      <c r="D19" s="1">
+        <v>16914775717.280001</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MLModelAndResults.xlsx
+++ b/Data/MLModelAndResults.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\water_ml\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E371F-8E50-447B-B144-510D127EB943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F79760-D9F3-4A82-A9A8-26F24AFCB4A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="6075" windowWidth="28800" windowHeight="14865" xr2:uid="{D4B50148-62F7-4E62-91D3-37C2BC6734CC}"/>
+    <workbookView xWindow="7440" yWindow="4380" windowWidth="28800" windowHeight="14865" activeTab="1" xr2:uid="{D4B50148-62F7-4E62-91D3-37C2BC6734CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression" sheetId="1" r:id="rId1"/>
+    <sheet name="Classification" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -82,6 +83,18 @@
   </si>
   <si>
     <t>KNeighborsRegressor(default parameters)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(n_estimators=5000,  random_state=100)</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Classification Report</t>
+  </si>
+  <si>
+    <t>Fall Season Summaries</t>
   </si>
 </sst>
 </file>
@@ -137,6 +150,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>486368</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C20009C-BEFB-4762-BA64-0C9BF14C6B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="571500"/>
+          <a:ext cx="4248743" cy="1724266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248212</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACBA5D4-C0C0-431C-A0CE-E0D22247BE63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="2667000"/>
+          <a:ext cx="4029637" cy="1619476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448261</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44EB7529-692C-4242-9BA2-A7FE02D695B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="4562475"/>
+          <a:ext cx="4201111" cy="1857634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295835</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC915868-F00A-41F9-81CF-08BF9C303EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686425" y="6696075"/>
+          <a:ext cx="4010585" cy="1648055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3972B6-C082-41A9-8DFD-1AF7E9700D80}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,4 +866,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906536FA-CC53-4520-8807-37783A395C62}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/MLModelAndResults.xlsx
+++ b/Data/MLModelAndResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\water_ml\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F79760-D9F3-4A82-A9A8-26F24AFCB4A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2492B63A-8962-4A56-B22D-BA9750AC6A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="4380" windowWidth="28800" windowHeight="14865" activeTab="1" xr2:uid="{D4B50148-62F7-4E62-91D3-37C2BC6734CC}"/>
+    <workbookView xWindow="150" yWindow="1515" windowWidth="22515" windowHeight="16080" activeTab="1" xr2:uid="{D4B50148-62F7-4E62-91D3-37C2BC6734CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -872,9 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906536FA-CC53-4520-8807-37783A395C62}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Data/MLModelAndResults.xlsx
+++ b/Data/MLModelAndResults.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\water_ml\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2492B63A-8962-4A56-B22D-BA9750AC6A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28269F0F-5D8C-41AF-9970-8F9A32480BD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="1515" windowWidth="22515" windowHeight="16080" activeTab="1" xr2:uid="{D4B50148-62F7-4E62-91D3-37C2BC6734CC}"/>
+    <workbookView xWindow="2685" yWindow="4710" windowWidth="22515" windowHeight="14295" activeTab="5" xr2:uid="{D4B50148-62F7-4E62-91D3-37C2BC6734CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
     <sheet name="Classification" sheetId="2" r:id="rId2"/>
+    <sheet name="fall" sheetId="3" r:id="rId3"/>
+    <sheet name="winter" sheetId="4" r:id="rId4"/>
+    <sheet name="spring" sheetId="5" r:id="rId5"/>
+    <sheet name="summer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -95,6 +99,12 @@
   </si>
   <si>
     <t>Fall Season Summaries</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>F1 score</t>
   </si>
 </sst>
 </file>
@@ -872,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906536FA-CC53-4520-8807-37783A395C62}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -949,4 +959,832 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF244DE-A88F-4349-8288-04283D4C9DC0}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429C3FCB-347A-4B0E-A912-F3502659A8BA}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3912ED-C09B-43A8-858B-89CCD17D2532}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20943BB-CE2A-4118-8D63-92F8E45E884A}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>0.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>